--- a/病程数据集.xlsx
+++ b/病程数据集.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
   <si>
     <t>count</t>
   </si>
@@ -36,13 +36,13 @@
     <t>试验组</t>
   </si>
   <si>
-    <t>无效</t>
-  </si>
-  <si>
     <t>治愈</t>
   </si>
   <si>
     <t>有效</t>
+  </si>
+  <si>
+    <t>无效</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -458,7 +458,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -468,46 +468,48 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -515,24 +517,24 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -548,20 +550,20 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -570,13 +572,13 @@
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -586,7 +588,7 @@
         <v>8</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -600,200 +602,135 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B16" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
       <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1">
+        <v>5</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1">
+        <v>7</v>
+      </c>
       <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
         <v>8</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A31"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -829,34 +766,34 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -865,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -884,9 +821,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B4"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
